--- a/swings/2021-11-22/BINANCE_SPOT_ALICE_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_ALICE_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -709,6 +719,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -761,6 +772,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +827,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>18.84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -921,6 +937,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>18.29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -975,6 +994,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1029,6 +1051,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>18.73</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1081,6 +1106,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1135,6 +1161,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>19.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1216,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1379,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1399,6 +1434,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>18.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1453,6 +1491,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>18.66</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1505,6 +1546,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1557,6 +1599,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1654,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O22" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>18.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1717,6 +1766,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1771,6 +1821,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>18.94</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1823,6 +1876,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1875,6 +1929,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1927,6 +1982,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1981,6 +2037,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>18.35</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2035,6 +2094,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>18.57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2149,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2202,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2193,6 +2257,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>17.55</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2245,6 +2312,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2297,6 +2365,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2349,6 +2418,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2403,6 +2473,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>18.68</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2455,6 +2528,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2507,6 +2581,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2561,6 +2636,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>18.12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2613,6 +2691,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2667,6 +2746,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>18.36</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2721,6 +2803,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>17.97</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2775,6 +2860,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>18.66</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2829,6 +2917,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>18.35</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2883,6 +2974,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2935,6 +3029,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2987,6 +3082,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3041,6 +3137,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>18.12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3095,6 +3194,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>18.47</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3251,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3201,6 +3306,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3255,6 +3361,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3307,6 +3416,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3361,6 +3471,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3413,6 +3526,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3467,6 +3581,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>18.76</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3519,6 +3636,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3571,6 +3689,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3623,6 +3742,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3675,6 +3795,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3729,6 +3850,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3783,6 +3907,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>18.16</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3835,6 +3962,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3887,6 +4015,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3941,6 +4070,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>17.88</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3993,6 +4125,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4045,6 +4178,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4097,6 +4231,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4149,6 +4284,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4201,6 +4337,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4255,6 +4392,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>18.15</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4307,6 +4447,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4361,6 +4502,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>17.71</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4413,6 +4557,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4465,6 +4610,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4519,6 +4665,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>18.52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4571,6 +4720,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4623,6 +4773,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4675,6 +4826,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4727,6 +4879,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4781,6 +4934,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4833,6 +4989,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4887,6 +5044,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>18.35</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4941,6 +5101,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>18.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4995,6 +5158,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>18.44</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5047,6 +5213,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5101,6 +5268,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>18.17</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5155,6 +5325,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>18.51</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5207,6 +5380,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5259,6 +5433,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5311,6 +5486,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5363,6 +5539,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5415,6 +5592,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5469,6 +5647,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>17.87</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5521,6 +5702,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5573,6 +5755,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5627,6 +5810,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5681,6 +5867,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5735,6 +5924,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5789,6 +5981,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>18.19</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5841,6 +6036,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5895,6 +6091,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>19.15</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5949,6 +6148,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>18.65</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6001,6 +6203,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6055,6 +6258,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>19.29</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6109,6 +6315,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>18.89</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6163,6 +6372,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>19.12</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6217,6 +6429,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>18.69</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6271,6 +6486,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>18.95</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6323,6 +6541,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6375,6 +6594,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6427,6 +6647,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6479,6 +6700,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6531,6 +6753,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6585,6 +6808,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6639,6 +6865,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>18.31</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6691,6 +6920,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6745,6 +6975,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>17.74</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6799,6 +7032,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>18.07</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6853,6 +7089,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>17.64</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6905,6 +7144,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6959,6 +7199,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>18.04</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7013,6 +7256,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>17.77</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7065,6 +7311,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7119,6 +7366,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>18.19</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7171,6 +7421,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7225,6 +7476,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>17.83</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7277,6 +7531,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7329,6 +7584,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7381,6 +7637,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7433,6 +7690,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7487,6 +7745,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>19.78</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7541,6 +7802,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>19.38</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7593,6 +7857,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7647,6 +7912,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>19.86</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7699,6 +7967,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7753,6 +8022,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7807,6 +8079,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>19.66</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7859,6 +8134,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7913,6 +8189,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>19.1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7967,6 +8246,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O142" t="n">
+        <v>19.37</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8019,6 +8301,7 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8073,6 +8356,9 @@
           <t>ALICEBUSD</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>18.99</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8126,6 +8412,9 @@
         <is>
           <t>ALICEBUSD</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>19.25</v>
       </c>
     </row>
   </sheetData>
